--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/18_Bitlis_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/18_Bitlis_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8AE9393-781F-4206-9DDB-692E7E8D6E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{523FE2F4-C1B6-4CD9-92D5-21F9AC923F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{5DBE7EAB-BCAB-48C0-93F2-BCF51D18A4B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{A7B73543-2F75-4DB4-B000-385F79ADA4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -957,13 +957,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C18D5472-7867-461C-A6FA-7986E4EFD822}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9D62EC1F-4354-47DC-8DE9-6E5F393EA513}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A40968F5-AC9B-4E37-AAE8-B490E7CDA77C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{413CB567-1F73-4C69-94C4-0E7C43DB245F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{40EDE075-81D2-47FF-9011-53F258CFB58F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{98FA4712-AA90-444D-86E0-88AA19EC0655}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{24241475-1C35-436A-816C-EAFD64AEE03D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{85F0B032-E293-4AD0-91D3-736D5603C59B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{542199C3-95A9-45C7-A64A-43FEEEB4AFC8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{35A02BDB-DF81-4EC6-8C79-CF21DF3034EC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FFCA460A-3916-4231-8862-6CEB667A0D2A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AF2860C0-EC4E-40D3-A166-053980CFD44E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{48B847EC-DF90-435B-96A0-9291972E2FF4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FC2D6080-7BE5-4E20-B815-A9C84EA99987}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7125AC14-8DAF-4A02-90DE-0CB786F8A26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA797F0A-D21C-412C-97DE-C31100388CF6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2564,18 +2564,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5379065C-396A-466D-AD6F-32FF7254B0F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E8F1475-5789-478D-AFA2-0D0419560347}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1ED59B52-125B-4E62-8E99-643C595C18D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{631AF821-1A71-4EFF-87E8-55517A1568C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8209DB2-731E-4F53-9D95-4E8AD9556D64}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{848B734B-322D-49F7-8DF8-749057077132}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92EE89FD-7881-4F78-B45E-C745C9C32DAA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{867B23C5-DA18-4F1D-A710-535EF9E42492}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDEAC810-2D41-4C61-87D2-A54DDF660874}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D708DE05-72A8-4725-8E98-86836235BA7C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{723FCC80-7D85-4F2F-B58E-FE817158F24A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81B66579-9B31-4EC4-A4BF-AC1EC6E4CA17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5E1B95F-6178-40ED-AA11-D1944D4AC018}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7B4FAA5-C4A7-4EFA-B25F-38B90080C941}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1ADB3E7-E954-4743-A04A-223BA61F8A0B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51E23C04-BAA9-4A52-85FF-73C12B1A7A0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0F641E3-26B7-48D7-AB50-2722D94285B7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9EC2EFD2-05F1-4F6F-9A06-1FD99429EA3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2FB1F2D-16C1-44E2-B95B-2A4D8F6C130C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F40DDB6-FCE6-4852-9D01-CDF23B777D01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8C9FEA6-60DA-4788-830A-38185CC03294}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{58C94A3B-0EFB-427D-9D33-865EC635D6FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B134AE93-D242-4FE3-A936-6929F2771064}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BAEBBC6-1675-44BD-A81B-45D895B279AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D58C5-81A8-4225-8070-35754C77FB9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A145B24-390E-461D-A326-02BA794DE66F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3866,18 +3866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29EEF30C-BF38-4ADC-9349-F28EF7C36A18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B010BDBC-5AB6-455C-A47B-3A961E6FA2C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB57858C-78DB-4F75-8EE4-12A26D38FA8E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A450A35-0CFE-430F-84CB-1F5E201401EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{006A1C59-C514-483A-BEDA-D26E631C6B83}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C6AF757D-B396-4D99-9A4C-596F515F9CC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C919373-08C8-49C4-9386-C5C7668601DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2810941-9A6B-46B2-8EA8-7498034D80A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D77DC079-BE2B-4B6D-A991-0795C1B97570}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{80ECE51F-9F2A-4ABA-8537-DF872EE46CEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6083EB97-AC69-4301-ADD0-DF9150FC4822}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52E9900C-C9E6-4393-9F96-A7D1CFDF21EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{189C5136-CC6D-4847-ACDF-AB8C7A7096AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C04D03E-51D2-4D38-B28B-508B5122F0EA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D1E0528-94B2-401B-BA5C-23CBFDD3E8B0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F301E2F-FBC2-4A60-A4D5-FCAAC7B6E297}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47CAF911-30EA-4252-B5ED-A03D31D26D7E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B666B60-2A56-4BEB-900E-778F34C9BA28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4F06019-EDA3-4350-AC3E-084C95A06E60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07A1BC13-AA1A-4224-9236-039E27957578}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CCA441E-057C-4E4B-AB5D-A56E1331A748}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A939332B-5928-42EC-9FD7-B41C16FDC61B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC138146-DD8D-4E49-BDBA-446EB188D68B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1EFA273-C655-47DD-AFF3-37CC2B18D79E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3890,7 +3890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12B2C4D-26F6-4E47-A585-E54F7D04F412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A6742-A842-413C-86FE-86390565C025}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5164,18 +5164,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F2AF69F-6084-42F2-90EE-B952351514AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EAE00D5-7031-4B76-B7B7-42152D0E5262}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF15C60A-07C1-4EAE-B7B4-1DF250C4A174}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66174921-2D36-4752-8C2F-063B66AC43B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D33897C5-0A63-4867-8E23-91713FD83674}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C037E38-FDDD-44D0-8EE6-5C84A8B734FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C42329E-2596-487F-8F14-E290D9B91E31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D077558-3588-4C23-A165-1A05133DDD51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF08D030-D539-4E20-93FB-F7D02B1D7659}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{587F89C5-9540-4665-BDAD-E3DCC7A7F859}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D906D1F9-CC48-4BEE-8FB3-0BC5BAA58955}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3A7231A-A449-407B-8AC2-D804953DFFDE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1290A5A2-3527-4580-A4C2-73FA9A6B0E9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D150033-7CD8-4429-A539-F4F0F7A5B291}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2B1F9B4-0333-410F-A8C9-5E24A4CFB2FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29928210-7DA9-4630-B27E-4E9D48EE4222}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FF8655E-AC26-48A9-8F61-C1179CDF36F7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D4199E52-8F74-4118-B6C3-E2DFCD14BD40}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50E1563D-4F2B-4AFC-A75A-7D6361AB81D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C09F1A53-A49E-4715-829C-46991E467A9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F139148-828D-4FEB-A3FE-2E7580F36F5F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A2530E55-1F77-4E5F-8C18-A7177E914BA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9E6CC89-7593-4D32-8FDF-AE1408BD9567}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1236D006-59F8-481F-8DBE-A542260B09EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5188,7 +5188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9FD0B-7B40-457E-AB38-EB9D4B9E7088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6A9277-1BDE-4939-A764-660A1D858D5C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6438,18 +6438,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69C1A56B-1035-47B0-9100-E0E2AC319ED8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF72AE99-7408-443D-8755-E4AC247361AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B4D53BC-9B60-430A-8711-22E66DFFEE09}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5D1AC25-68F5-4D14-BD80-7420DDC8ED13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07F559C6-81F9-45BC-B4C7-5DC4F96FD872}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E1ED3ADA-AF99-423A-88D9-83EC107F6FB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C571388D-0A36-4C34-B830-379DC0ECBB25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6F4FBB7-BC48-4E30-B15F-2922446E051F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8510DD8A-F04E-4FA8-AE82-85E16BB25B2A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{142ED716-2E87-48B6-A0DC-4E45F8743923}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E37E1CED-4D5F-44F7-83ED-1462D5F6E1C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D9FFDE6-C718-4506-8640-A5FB29F48089}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0125995-8684-4074-8D11-D84F0D20C6D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDC34D8F-B621-4E1C-9B97-545D3A78B384}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12E0DCBE-FF8D-409A-9FBA-746B13BFE835}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A92C2C9-1185-4B94-84C0-DDF749D7949F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12DF463C-E05B-4C77-9E90-3EBD3004CDA3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FCC39476-C7FB-4C2E-89F5-BDF43DC2DD5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB320496-23A4-45B0-BFF5-ACB6F8511B95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39C45F3F-CC8F-4712-9C9F-31BF47323961}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EFC991A-2BA8-4542-BE68-EAAEDF2B9E3A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7DEC5722-F8BA-4FAF-972F-EC672BFE65A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE3DF736-E5DE-4693-9604-C3A3D197A365}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5ABE258D-CF94-42C2-8214-B81D0FDC654D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6462,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F0AA44-77AC-48CD-B776-7E5865E103A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFBFB30-7E61-43ED-8B3E-22FE987AF820}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7695,18 +7695,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7DD8CEA-EA34-4E31-8F4F-A7A890C5A527}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{141AB4B8-3093-47DA-9FA3-07FD93561AEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F32FDF4E-B39C-4258-8FAA-88C2CE0DB04A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B46082E3-957F-46F7-87BF-A28117D9C628}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6F184C6-4482-451C-8169-1BE06578BCDF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53864240-81DD-46ED-A0D9-288E4DB79605}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CAC9662-1A2E-4ACD-AC3F-87245AD7C3A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FA56AB2-6C7D-4062-9676-09100F6091BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB2C674A-9933-4330-887B-76E3DD419A5B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9138B724-11B8-4094-A896-39E74B26C72E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A28DC694-F6CF-4C67-A230-33E80ACF8060}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D144DEA4-7B49-4D23-8F1E-7E546A595268}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7682D5E7-D1A6-4F81-83E0-17CEA9D58ACC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D51E112D-2094-4B55-B887-6A4E9A44F244}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE01E04C-EBF5-40BC-8399-646C00955784}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{166F9864-F411-4090-B808-9D3464653DB5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{847AF275-5136-4476-8AE1-E9EEBD0466FF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9DF4CF6-31FD-4F18-8B8D-DFCF460DEABE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA0DE050-D3BC-4C8E-B40F-7E8F96CD37D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13E97945-B32F-4369-8564-B0F9FF2187D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13C1B7AE-E48A-43C4-8780-8CE328A6D53F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{02634C20-1F13-46F5-91F8-99329B57009E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D23D545F-2303-4819-891C-F2FD5CC7004A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6B5C762-D7D6-4880-B9B7-C74EACB112DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7719,7 +7719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CC7D0D-01A4-4037-B077-1B219E7C853C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA041F2-ED35-43EA-BCEC-1920492AF506}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8952,18 +8952,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4E03F3D-F8D8-499F-AA09-984C860A4587}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77DB73E9-626A-461E-81A6-F7ACE63C5EE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F96DCFD4-2944-4CEA-8FFF-D0C2D3082295}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30C9F712-550C-44CE-88E9-BD1C538B6DFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97EA4AA7-6891-48B5-9EFF-767D5B5B27C1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{977F586D-6389-4188-9709-B3A70EDF8E4D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CEA33BF-DE12-45E8-BDB7-9B7E4320ECDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD52477E-159E-48F8-B5B8-5D05EF188280}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DF08915-404F-4CB4-BB98-3BC6A3BFF7C6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C72D7279-513D-49B8-805C-834C13DECDCC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01968A2A-E857-407A-8DAE-CA530C315E01}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A99D682-B1C0-4606-9074-2B28E3E327A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D71D417A-4305-4744-AFD5-6A95404AD816}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04C2F337-2CF0-4B6C-BEA7-BE4DCB7BC3DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97445578-7076-483E-9E89-375FEECB22A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A849DAB0-975B-4D41-9B97-B9AD08AA2E32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{603E0707-A86D-4468-B4A7-8D9387CFCFA4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6ED7EBFC-61B6-4615-B43E-F79F084B1238}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C524CA6E-30BA-4BAE-A4CD-70D424A49A3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C53C90E-853D-4BBD-91BE-89046CFB3751}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48C6B3F7-6613-414A-8851-D977F8DA1871}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{83C4576E-7B37-4191-9C5E-C89A0D029428}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F39E24A-49FF-4C06-BD8D-DE01C1AC8EA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE3539D2-2E6F-4E2E-9BF4-D1E212F583AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8976,7 +8976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFAF720-FB48-4CE2-9F48-5322B2369378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E11076A-2475-414D-ACA6-0EA8B78C8D7F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10209,18 +10209,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED76498D-4CB2-4CEA-BD5C-192A7DFFA4FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F58D7B7-7BAD-4FEE-9C22-F33E8E78BE19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98DE41D1-41F4-40E8-8DFB-588CEC6AE127}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{698A9786-113B-4F71-B360-7F3667270223}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78A59F7B-2ED7-4507-AD64-32FFB7F16383}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D5A7F7C-FB04-4A31-95FF-D4BC952C7072}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69A01ED1-BC71-451F-BF4A-14E95866F2DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB3774D0-38FF-471B-8DAF-21756F4BAAC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{604DB2E6-01E4-469A-B89C-3E7FFC85CF85}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{237842AD-E445-4A6B-BE67-A637E70ED2AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF381FB4-A65E-43F8-AF91-B4422E9AB39C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{810B3701-E7BF-42C5-95F4-A8D5B0FAC331}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD80F8D0-238F-4CDA-B9E1-446203704B4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03590E49-C07A-4B54-B1B8-E9B530EA4767}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA98463A-1380-402D-89BF-B52100CEB2B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D88A923-2564-4681-8107-785763649714}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C83B63A-7B1C-4011-8860-AB37A639E612}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{045147A4-D801-4842-A4EB-52CC3DDC65F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44800C2E-CBBC-41D6-A9FF-4F41BA142FC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06910F09-9AD1-4C5D-A048-4B65131DFD32}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BD688E7-9F79-4A69-BE4E-11F29E04798F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C2CC002B-0A13-4893-B488-0FA0363D4F71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1CD4D44-1E41-4FB8-8C17-BA06EFBF3CA5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27E808D1-B4B9-49A3-8749-96A9E1191847}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10233,7 +10233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A2EF91-76FF-4A44-A7FB-B25EBF545D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1A2AE-A54B-4158-AE6A-1FEAB2E73908}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11466,18 +11466,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{137C2AEE-A5D1-41BD-9770-2AB1FA24AAEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB2D0D2A-10AB-4870-8565-32F050680444}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B942952B-45F1-411B-8B30-715C2A440E6A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06DCE468-A4AB-4DF8-A5C8-8F92E1F3A7D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E55BD82F-6F93-4E3F-84DC-7A839496C2BE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9F387C62-280D-44FB-B16F-3946FB5694C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AD20B2E-C794-4F26-B576-E0A2EDB1DF78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D31EF850-A765-4663-B823-FECAC11ECE3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92BAA015-15A0-48BF-A3CB-EB9808D38132}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{19223666-164A-4AE9-942B-A7D41D22096E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{055192E3-5BF6-4F44-B088-371EB1C78340}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FCB19CF-DC85-4ABA-BC31-0C2DE6D7B1A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{949C7C62-22F3-46A4-B575-4278F2B001E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44D6F4E7-919F-4F64-9BC5-CCF5BB889CAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BFD6942-6975-485E-BC06-E38CD127A8C9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A1F1194-E8EA-4EDF-9DD8-6199416CD493}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B37EFD8B-1B05-4A17-ACCE-0140C23133FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E386BDCA-5069-4964-97DE-2FB8BC2C8D72}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F8EB5BB-C89A-48C4-885B-298544A55D6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31C582CB-B12C-42FF-BD27-45E3D067BB93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22657DA8-3402-4E36-94B7-6C4CEAD10A83}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A251A99-86D0-4E17-B349-9AA2118091D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BBDE0C1-2618-48B9-AA81-1E9B788A75B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9F24C5A-5EA9-4485-A0EA-1124313D67F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11490,7 +11490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70CA923-3AEC-4FD1-8982-CD7B31169D70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756CDE5C-89B0-4585-A77A-513A75F56A83}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12716,18 +12716,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C734CA95-C860-45F2-9BCC-5CC703A52078}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7206156C-7FDC-4314-8012-873F5773DF1D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF23CCB6-961F-432C-A634-6D92389DCA4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01582C0A-154F-4E46-8578-C4AF834C936C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57C4A8D3-A925-4C89-AD44-F03CEC88C270}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1418C0F3-3ECE-4C1B-A8B7-0DE5D8103302}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0FD9274-4C9A-4D8C-9ED5-32AECF6B7EF4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E28E8EBF-47FD-466E-A26F-C5DBE2A48DE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{274245A2-DBE0-4734-8237-8A98832D6790}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AD3B5488-4C68-41E2-87AE-AFAB458CE8D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24AAA5E2-53C6-407D-BFFF-D8AA58D67014}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94245F68-2AB6-48BD-80DF-6A55B741FC47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CD0670B-B244-430E-846E-A502AFFC5469}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D60A8CEA-4CC0-4B42-BFCC-C448D9FA15C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF9F5712-8D25-44BF-9349-C855BFF416DA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBE06F06-A3A4-42C4-BD78-B139966E4984}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F3EB8E3-578C-4166-8A49-E516D029210E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{319B2CEC-5971-430D-879B-82146031A313}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DF5BEFB-0106-4850-A868-995F6E242416}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{435263A6-476B-45AE-8915-FB01542376AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02021E9B-C120-4B35-9414-45AB41B0F6B6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4EFA27C7-A493-45BB-8A5D-D10DE002F4C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AC0AA71-8DFA-434F-BA7F-1DA19CBC6E7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{888AB392-EEAF-442E-BDCC-DD2D7DA6A83B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12740,7 +12740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254A635F-E668-4CF6-90B7-40622B0CC016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD8B239-687D-43A1-A1E1-6A730D984DF4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14022,18 +14022,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{990F4DBF-4414-4B82-8102-F76DB0E6E329}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0361F584-92AD-4FFD-A050-FCE12134140D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B7960F7B-6987-4C53-9540-FE76044D714F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C1AA5C9-EED1-4A54-ABB3-2529E69F1E32}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEF76374-C59D-4E33-B85D-93718C927286}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D69F3D41-09D8-473C-9683-E6B56BF7DB66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74BD9B8D-BA5C-4243-AD9A-B2BC82DCB75A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A29B3A9E-BDA2-46EE-943C-A734FC8A0A30}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4E9490F-A056-48C1-8093-9068F1D07CC2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3AD1E6AB-B656-4E62-ADD8-A55CA250172F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FA94B1B-61D9-4475-A65B-653812BB7192}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34215E37-4A70-462D-9DD0-E1D2F4EDF128}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B017EC51-124A-4E5C-BFD8-F89F583F8B42}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40ACA23F-2810-4981-B482-FD8969346709}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82417BDA-F599-4C18-92DD-741CBCCFB6FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D98B1B37-6724-491E-9C69-6DB91288B3C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4542269C-530D-484D-8209-409B0ED9E7D4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2EBE7EC-C875-400C-808C-7D15ADF1796E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A842AF70-F0A1-4D6F-B90B-607FFF2D6085}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F9BF39D-7D45-4876-8C64-54AA69C0C10B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C7259C9-90EF-4266-9129-4241DD097FAD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{31EF5B89-3559-4B79-BCB4-66F09BD31C45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1105ABC-6686-483F-A2C3-F89E6D424E7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92B5D337-4948-42A8-B17D-2DCCF6B07279}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14046,7 +14046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE3E43-82B8-42DF-976D-7B44B76BC468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2AAA8C-CA7C-414F-AD5A-225C13F1EA56}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15324,18 +15324,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F536F304-15D5-4964-85E4-86434293E9E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A8241B4-BF01-4E4B-AD47-4B2A8DEF5B35}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23602EE2-975A-4EC6-8FAE-D9C3BA12C744}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17DB7EBC-66C9-413E-9B39-89B54E946C8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E19D86BF-F326-47FC-A316-DB1BF9BC35F1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{635DD457-FC56-437D-B12D-66B370AE817C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2659E7B2-2EDF-4058-A191-A2495B1B2FCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26C0FB77-21EC-4277-B454-170B9D42FBA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38749FB6-2A3B-4665-A0F1-CC5DA6E6BE88}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B97F745-35F2-4A79-B158-983962F8AE5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DAA717F-1A9B-4F09-AB19-5FA1E927B27D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{39834B31-E3FD-46BD-BA53-0DD2B4549482}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{257DD287-6A21-471E-91C2-0DB90F4D4CF0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C3117E1-9B2F-4834-926C-9E921EFE4E15}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99226915-DE49-48C0-A858-97A885463025}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFD55F15-7E0D-4820-A53E-1A778BD4C033}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9862B8CF-2D60-4F86-B320-CDDD735404BB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A6618F6-30F2-49C6-A958-D5850B3735C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7E90886-F19D-49CD-ACFC-7E27020881AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AC28AA2-8879-489C-97CE-9A2020153E86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6370F11-F200-4FB1-B8E6-1299F18DBA73}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D324A1E0-92B8-4DE3-B0DF-0330D621B4D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7522E3E-5674-4BF2-AE77-04E241A4AB12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E69F628D-E9E1-4366-A492-4C1D4E6F08FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15348,7 +15348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C701E9CF-84A2-48C8-9E33-4D91FB02B954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D332A972-611C-47CD-8D29-67ADCF0C2892}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16626,18 +16626,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40FE70FD-FFCC-41C7-9BEC-00516C58E091}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C259EAB-A39C-43E4-A5CB-AEA73EB8D603}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1AFE34D-CE47-4EC7-B9BA-5B4DA067AA73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5C47948-779B-4BD8-AC9E-ED7D05D0EFB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D5D36E3-5E2D-4CC3-BE00-98B09BB0CFC8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A910821-7E28-47C4-870C-B35535BF1CE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9D551ED-B4B4-4425-B78E-E7826693D3D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7BE3127-05A3-4F19-9FE6-93E2EA20236A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{696E0655-57AC-4725-AB88-596614AE6637}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EDD21EBB-61A7-495C-94AA-C31D0E7958C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE28ABFE-3CCD-4176-BCF8-639B90DA683A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03E1AD2F-F3C6-49A3-9ADF-0D22DDF37E48}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA491E53-DD64-4692-9EA0-91AEB2C0822B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51EA26AE-0A65-4246-A97A-1AE19F045226}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4658C370-0146-44C0-A3A9-F0A8E20979EF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A5BAC3E-3734-479B-9185-5E608B5A6983}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CFF630B-9C53-439F-9520-526088C8686F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0855EF85-A7DA-447A-AF2C-AC11B1967978}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA40FC63-D2B8-4F70-B08B-7EAA4CD43C77}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECD255C2-8708-4AC3-9817-411BE06CC44E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46E2677A-B5C4-4E81-914B-3B0387629F89}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B63F72B0-6476-42EC-8C84-B0E10760EF6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C79F421-2384-48C0-803B-B1154FD39389}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D99333D7-2952-44C0-98B0-54A55E68BFFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
